--- a/bin/Debug/配置文件 - 副本.xlsx
+++ b/bin/Debug/配置文件 - 副本.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FOGTestPlatform\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1115AB-1563-4E17-A7C1-6E4C762CD67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9B5C4-7C32-4646-A812-26A65A9FC412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>使能</t>
   </si>
@@ -85,9 +85,6 @@
     <t>True</t>
   </si>
   <si>
-    <t>COM1</t>
-  </si>
-  <si>
     <t>460800</t>
   </si>
   <si>
@@ -106,10 +103,27 @@
     <t>4200000</t>
   </si>
   <si>
+    <t>CH3</t>
+  </si>
+  <si>
+    <t>COM4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>COM2</t>
-  </si>
-  <si>
-    <t>CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -474,7 +488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -514,6 +530,27 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>115200</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -523,25 +560,25 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -560,25 +597,25 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -624,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -720,10 +757,10 @@
         <v>-200</v>
       </c>
       <c r="Z4">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA4">
-        <v>-230</v>
+        <v>-240</v>
       </c>
       <c r="AB4">
         <v>280</v>

--- a/bin/Debug/配置文件 - 副本.xlsx
+++ b/bin/Debug/配置文件 - 副本.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FOGTestPlatform\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\C#Code\FOGTestPlatform\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9B5C4-7C32-4646-A812-26A65A9FC412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5699CA61-E764-4FBB-B159-225E960B17BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通道串口配置" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>使能</t>
   </si>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -528,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -659,20 +663,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -680,7 +684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -770,6 +774,9 @@
       </c>
       <c r="AD4">
         <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
